--- a/empinfo/DaSom.xlsx
+++ b/empinfo/DaSom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project/empinfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project-private/empinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EBD0A5-F2CE-D749-B20F-DDE550870F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F675C6-F438-F745-9FF8-E031C8F7DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>item</t>
   </si>
@@ -37,16 +37,28 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>copier</t>
   </si>
   <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
     <t>clock</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>blinder</t>
   </si>
   <si>
     <t>snack</t>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -456,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -467,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -478,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -489,9 +501,53 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
